--- a/data/long_dif/P18_3-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_3-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,34</t>
+          <t>2,56; 12,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 9,29</t>
+          <t>2,48; 12,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 35,28</t>
+          <t>11,77; 35,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 20,94</t>
+          <t>3,01; 12,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 17,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 22,46</t>
+          <t>7,74; 20,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 14,84</t>
+          <t>6,95; 17,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,25</t>
+          <t>13,14; 22,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 26,41</t>
+          <t>11,93; 29,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,42; 14,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 13,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 26,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 19,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>71,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,5%</t>
+          <t>61,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>62,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,12; 86,4</t>
+          <t>75,91; 92,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,97; 85,71</t>
+          <t>48,8; 81,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,34; 78,65</t>
+          <t>57,79; 78,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>61,59; 75,57</t>
+          <t>38,49; 74,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,17; 77,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,27; 72,56</t>
+          <t>64,49; 80,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,35; 79,19</t>
+          <t>64,0; 78,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,73; 79,15</t>
+          <t>60,14; 72,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,42; 73,3</t>
+          <t>53,96; 71,57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72,71; 84,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>60,93; 77,9</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61,25; 72,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>50,49; 69,5</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,51%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 29,35</t>
+          <t>2,53; 15,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 33,92</t>
+          <t>13,03; 47,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 18,23</t>
+          <t>5,89; 16,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 21,9</t>
+          <t>18,58; 59,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 24,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 21,78</t>
+          <t>8,3; 21,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 23,93</t>
+          <t>10,89; 23,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,16; 25,91</t>
+          <t>12,49; 21,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 17,47</t>
+          <t>12,68; 26,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 17,13</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 31,89</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 17,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 37,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 15,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 19,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 19,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 14,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,04%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>76,78%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>71,69%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>18,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>73,8; 83,29</t>
+          <t>9,89; 23,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,67; 78,9</t>
+          <t>6,73; 13,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,88; 77,59</t>
+          <t>11,88; 20,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,45; 77,95</t>
+          <t>7,61; 15,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,67; 73,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,68; 70,87</t>
+          <t>12,22; 21,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>73,58; 79,71</t>
+          <t>8,05; 13,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>68,27; 74,99</t>
+          <t>13,3; 20,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,34; 72,89</t>
+          <t>15,07; 23,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,27; 19,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 12,65</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 19,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 17,86</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>67,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>66,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>60,12%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>69,25%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>64,04%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,85</t>
+          <t>66,16; 79,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,68</t>
+          <t>64,16; 77,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,56</t>
+          <t>66,37; 77,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,37</t>
+          <t>58,77; 73,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,51; 24,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,35</t>
+          <t>68,32; 79,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,3</t>
+          <t>61,28; 71,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,4</t>
+          <t>61,92; 70,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,0</t>
+          <t>54,86; 65,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>69,65; 77,85</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>65,13; 73,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 72,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>59,19; 68,19</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,4; 12,87</t>
+          <t>8,17; 17,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,0; 19,9</t>
+          <t>13,03; 25,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,9; 14,48</t>
+          <t>8,94; 16,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 20,08</t>
+          <t>15,68; 30,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,98; 16,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,71</t>
+          <t>6,83; 13,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 15,38</t>
+          <t>17,85; 28,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,97</t>
+          <t>13,88; 20,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,06</t>
+          <t>16,51; 25,71</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,28; 13,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 24,92</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 17,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 26,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,99; 84,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65,01; 79,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>72,79; 82,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68,84; 78,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,95; 74,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>63,89; 72,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>73,19; 80,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,66; 75,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,62; 75,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15,04%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>10,52%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>17,63%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>17,58%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>14,61%</t>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,78</t>
+          <t>5,86; 14,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,31; 20,71</t>
+          <t>5,24; 16,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,41</t>
+          <t>7,9; 14,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,81</t>
+          <t>7,79; 15,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,42; 21,17</t>
+          <t>12,35; 22,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,77</t>
+          <t>8,35; 15,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,23; 19,36</t>
+          <t>11,41; 18,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,08</t>
+          <t>11,76; 19,34</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 17,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 14,83</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>10,43; 15,17</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>10,65; 16,22</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>84,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>69,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>67,38%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>79,0%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>72,62%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>72,86%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>71,41%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,34; 11,74</t>
+          <t>79,13; 89,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,21</t>
+          <t>67,84; 81,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,99; 18,53</t>
+          <t>73,13; 81,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,42; 16,97</t>
+          <t>69,65; 80,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,73; 17,7</t>
+          <t>67,7; 78,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,48; 13,65</t>
+          <t>64,26; 74,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,37</t>
+          <t>63,96; 72,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,59; 17,3</t>
+          <t>62,28; 72,76</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74,41; 82,37</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>67,95; 76,61</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>69,22; 75,88</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>67,58; 74,95</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>69,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,12%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>72,1%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>70,47%</t>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>75,6; 82,7</t>
+          <t>2,45; 8,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>69,53; 77,72</t>
+          <t>10,67; 21,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>69,63; 77,22</t>
+          <t>8,36; 14,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>69,94; 75,92</t>
+          <t>9,24; 17,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>66,14; 72,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>64,62; 69,95</t>
+          <t>6,42; 14,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>73,5; 78,2</t>
+          <t>14,96; 24,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>69,64; 74,32</t>
+          <t>14,14; 21,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>68,24; 72,5</t>
+          <t>13,9; 22,25</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 10,98</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 20,41</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>12,07; 17,07</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 18,63</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,48; 21,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>14,99; 19,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,41; 19,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>12,98; 16,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 10,86</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 22,55</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>11,04; 17,78</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 18,21</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 13,09</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 18,48</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80,5%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>75,59%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>71,33%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>71,48%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>76,04%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>76,24; 84,93</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>66,2; 82,63</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>66,36; 75,45</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>64,37; 78,67</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>72,78; 79,2</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>67,82; 78,8</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 15,73</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 16,58</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>11,17; 18,92</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 22,68</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 16,15</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 17,5</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 12,74</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 12,64</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 19,65</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>7,79; 13,09</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>12,8; 17,46</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 13,4</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 18,34</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>14,86; 20,92</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 14,15</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 12,35</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 17,74</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 16,23</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>80,1%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>73,56%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>73,63%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>69,27%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>72,86%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>69,36%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>66,77%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>63,28%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>76,4%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>71,43%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>70,14%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>66,22%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>76,66; 83,06</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>68,79; 77,44</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>69,37; 76,74</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>63,69; 73,97</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>70,07; 75,63</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>66,41; 72,19</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>63,9; 69,23</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>59,53; 66,7</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>74,35; 78,32</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>68,6; 73,97</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>67,86; 72,14</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>62,61; 68,82</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>19,3%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 12,28</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 21,59</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 14,2</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 28,03</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 14,16</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 22,22</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 19,45</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 22,53</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 12,57</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 20,67</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 16,04</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>17,31; 23,42</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_3-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_3-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
